--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3495,12 +3495,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5137,12 +5137,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7237,12 +7237,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9169,12 +9169,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9337,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9589,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10261,12 +10261,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10555,12 +10555,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10765,12 +10765,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10975,12 +10975,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11775,12 +11775,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12409,12 +12409,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12749,12 +12749,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13261,12 +13261,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13807,12 +13807,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14017,12 +14017,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14227,12 +14227,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14269,12 +14269,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15277,12 +15277,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15403,12 +15403,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16037,12 +16037,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16457,12 +16457,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16709,12 +16709,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16961,12 +16961,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17087,12 +17087,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17423,12 +17423,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18263,12 +18263,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18389,12 +18389,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19145,12 +19145,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19523,12 +19523,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19817,12 +19817,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19901,12 +19901,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19985,12 +19985,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20363,12 +20363,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20531,12 +20531,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21579,12 +21579,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21621,12 +21621,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21705,12 +21705,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22251,12 +22251,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22335,12 +22335,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22545,12 +22545,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23637,12 +23637,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23679,12 +23679,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23973,12 +23973,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24309,12 +24309,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24645,12 +24645,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24981,12 +24981,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25779,12 +25779,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25947,12 +25947,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26031,12 +26031,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26199,12 +26199,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26959,12 +26959,12 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27509,12 +27509,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27551,12 +27551,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27929,12 +27929,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28265,12 +28265,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28517,12 +28517,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28559,12 +28559,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29105,12 +29105,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29357,12 +29357,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
